--- a/커뮤니티 더미데이터.xlsx
+++ b/커뮤니티 더미데이터.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4EAFB2-B2E9-4107-A077-CEBB0B272EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87FE89-544E-4253-A713-AAD469D15E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="1290" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
   <si>
     <t>COMMUNITY_NUMBER</t>
   </si>
@@ -58,9 +63,6 @@
   </si>
   <si>
     <t>반갑습니다~~1</t>
-  </si>
-  <si>
-    <t>잡담</t>
   </si>
   <si>
     <t>안녕하세요2</t>
@@ -871,12 +873,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1239,11 +1248,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
@@ -1254,7 +1263,7 @@
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1287,8 +1296,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1297,21 +1306,21 @@
         <v>45292</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1320,21 +1329,21 @@
         <v>45293</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1343,21 +1352,21 @@
         <v>45294</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1366,21 +1375,21 @@
         <v>45295</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1392,18 +1401,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1415,18 +1424,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1435,21 +1444,21 @@
         <v>45298</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1458,21 +1467,21 @@
         <v>45299</v>
       </c>
       <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1481,21 +1490,21 @@
         <v>45300</v>
       </c>
       <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1504,21 +1513,21 @@
         <v>45301</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1527,21 +1536,21 @@
         <v>45302</v>
       </c>
       <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1550,21 +1559,21 @@
         <v>45303</v>
       </c>
       <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1573,21 +1582,21 @@
         <v>45304</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1596,21 +1605,21 @@
         <v>45305</v>
       </c>
       <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1619,21 +1628,21 @@
         <v>45306</v>
       </c>
       <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1642,21 +1651,21 @@
         <v>45307</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1668,18 +1677,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1691,18 +1700,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
+      <c r="D20">
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1711,21 +1720,21 @@
         <v>45310</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
+      <c r="D21">
+        <v>1</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1734,21 +1743,21 @@
         <v>45311</v>
       </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
+      <c r="D22">
+        <v>1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1757,21 +1766,21 @@
         <v>45312</v>
       </c>
       <c r="G22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1780,21 +1789,21 @@
         <v>45313</v>
       </c>
       <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1803,21 +1812,21 @@
         <v>45314</v>
       </c>
       <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
+      <c r="D25">
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1826,21 +1835,21 @@
         <v>45315</v>
       </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
+      <c r="D26">
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1849,21 +1858,21 @@
         <v>45316</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
+      <c r="D27">
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1872,21 +1881,21 @@
         <v>45317</v>
       </c>
       <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1895,21 +1904,21 @@
         <v>45318</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
+      <c r="D29">
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1918,21 +1927,21 @@
         <v>45319</v>
       </c>
       <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" t="s">
-        <v>9</v>
+      <c r="D30">
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1944,18 +1953,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1967,18 +1976,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1987,21 +1996,21 @@
         <v>45322</v>
       </c>
       <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+      <c r="D33">
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2010,21 +2019,21 @@
         <v>45323</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" t="s">
-        <v>9</v>
+      <c r="D34">
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2033,21 +2042,21 @@
         <v>45324</v>
       </c>
       <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" t="s">
-        <v>9</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2056,21 +2065,21 @@
         <v>45325</v>
       </c>
       <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>76</v>
       </c>
-      <c r="C36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
+      <c r="D36">
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2079,21 +2088,21 @@
         <v>45326</v>
       </c>
       <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
+      <c r="D37">
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2102,21 +2111,21 @@
         <v>45327</v>
       </c>
       <c r="G37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>9</v>
+      <c r="D38">
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2125,21 +2134,21 @@
         <v>45328</v>
       </c>
       <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
       </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2148,21 +2157,21 @@
         <v>45329</v>
       </c>
       <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
       </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" t="s">
-        <v>9</v>
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2171,21 +2180,21 @@
         <v>45330</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
         <v>86</v>
       </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>9</v>
+      <c r="D41">
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2194,21 +2203,21 @@
         <v>45331</v>
       </c>
       <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
         <v>88</v>
       </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2220,18 +2229,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
+      <c r="D43">
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2243,18 +2252,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2263,21 +2272,21 @@
         <v>45334</v>
       </c>
       <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
         <v>94</v>
       </c>
-      <c r="C45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
+      <c r="D45">
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2286,21 +2295,21 @@
         <v>45335</v>
       </c>
       <c r="G45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" t="s">
-        <v>9</v>
+      <c r="D46">
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2309,21 +2318,21 @@
         <v>45336</v>
       </c>
       <c r="G46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
         <v>98</v>
       </c>
-      <c r="C47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
+      <c r="D47">
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2332,21 +2341,21 @@
         <v>45337</v>
       </c>
       <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="C48" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
+      <c r="D48">
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2355,21 +2364,21 @@
         <v>45338</v>
       </c>
       <c r="G48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" t="s">
-        <v>9</v>
+      <c r="D49">
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2378,21 +2387,21 @@
         <v>45339</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
         <v>104</v>
       </c>
-      <c r="C50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
+      <c r="D50">
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2401,21 +2410,21 @@
         <v>45340</v>
       </c>
       <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
         <v>106</v>
       </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2424,21 +2433,21 @@
         <v>45341</v>
       </c>
       <c r="G51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>9</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2447,21 +2456,21 @@
         <v>45342</v>
       </c>
       <c r="G52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
+      <c r="D53">
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2470,21 +2479,21 @@
         <v>45343</v>
       </c>
       <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
         <v>112</v>
       </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" t="s">
-        <v>9</v>
+      <c r="D54">
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2496,18 +2505,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2519,18 +2528,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
         <v>116</v>
       </c>
-      <c r="C56" t="s">
-        <v>117</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2539,21 +2548,21 @@
         <v>45346</v>
       </c>
       <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
         <v>118</v>
       </c>
-      <c r="C57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" t="s">
-        <v>9</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2562,21 +2571,21 @@
         <v>45347</v>
       </c>
       <c r="G57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
         <v>120</v>
       </c>
-      <c r="C58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
+      <c r="D58">
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2585,21 +2594,21 @@
         <v>45348</v>
       </c>
       <c r="G58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
         <v>122</v>
       </c>
-      <c r="C59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2608,21 +2617,21 @@
         <v>45349</v>
       </c>
       <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
         <v>124</v>
       </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
+      <c r="D60">
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2631,21 +2640,21 @@
         <v>45350</v>
       </c>
       <c r="G60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
+      <c r="D61">
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2654,21 +2663,21 @@
         <v>45351</v>
       </c>
       <c r="G61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
         <v>128</v>
       </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" t="s">
-        <v>9</v>
+      <c r="D62">
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2677,21 +2686,21 @@
         <v>45352</v>
       </c>
       <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
         <v>130</v>
       </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>9</v>
+      <c r="D63">
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2700,21 +2709,21 @@
         <v>45353</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2723,21 +2732,21 @@
         <v>45354</v>
       </c>
       <c r="G64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
         <v>134</v>
       </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
+      <c r="D65">
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2746,21 +2755,21 @@
         <v>45355</v>
       </c>
       <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2772,18 +2781,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
-        <v>139</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2795,18 +2804,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
         <v>140</v>
       </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2815,21 +2824,21 @@
         <v>45358</v>
       </c>
       <c r="G68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
         <v>142</v>
       </c>
-      <c r="C69" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" t="s">
-        <v>9</v>
+      <c r="D69">
+        <v>1</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2838,21 +2847,21 @@
         <v>45359</v>
       </c>
       <c r="G69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
+      <c r="D70">
+        <v>1</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2861,21 +2870,21 @@
         <v>45360</v>
       </c>
       <c r="G70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
         <v>146</v>
       </c>
-      <c r="C71" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2884,21 +2893,21 @@
         <v>45361</v>
       </c>
       <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
         <v>148</v>
       </c>
-      <c r="C72" t="s">
-        <v>149</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2907,21 +2916,21 @@
         <v>45362</v>
       </c>
       <c r="G72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" t="s">
         <v>150</v>
       </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2930,21 +2939,21 @@
         <v>45363</v>
       </c>
       <c r="G73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" t="s">
-        <v>9</v>
+      <c r="D74">
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2953,21 +2962,21 @@
         <v>45364</v>
       </c>
       <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
-        <v>155</v>
-      </c>
-      <c r="D75" t="s">
-        <v>9</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2976,21 +2985,21 @@
         <v>45365</v>
       </c>
       <c r="G75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" t="s">
         <v>156</v>
       </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-      <c r="D76" t="s">
-        <v>9</v>
+      <c r="D76">
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2999,21 +3008,21 @@
         <v>45366</v>
       </c>
       <c r="G76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
         <v>158</v>
       </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
+      <c r="D77">
+        <v>1</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3022,21 +3031,21 @@
         <v>45367</v>
       </c>
       <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
         <v>160</v>
       </c>
-      <c r="C78" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" t="s">
-        <v>9</v>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3048,18 +3057,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
         <v>162</v>
       </c>
-      <c r="C79" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" t="s">
-        <v>9</v>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3071,18 +3080,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="C80" t="s">
-        <v>165</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3091,21 +3100,21 @@
         <v>45370</v>
       </c>
       <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
         <v>166</v>
       </c>
-      <c r="C81" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
+      <c r="D81">
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3114,21 +3123,21 @@
         <v>45371</v>
       </c>
       <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
         <v>168</v>
       </c>
-      <c r="C82" t="s">
-        <v>169</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
+      <c r="D82">
+        <v>1</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3137,21 +3146,21 @@
         <v>45372</v>
       </c>
       <c r="G82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
         <v>170</v>
       </c>
-      <c r="C83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3160,21 +3169,21 @@
         <v>45373</v>
       </c>
       <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
         <v>172</v>
       </c>
-      <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3183,21 +3192,21 @@
         <v>45374</v>
       </c>
       <c r="G84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
         <v>174</v>
       </c>
-      <c r="C85" t="s">
-        <v>175</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3206,21 +3215,21 @@
         <v>45375</v>
       </c>
       <c r="G85">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
         <v>176</v>
       </c>
-      <c r="C86" t="s">
-        <v>177</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
+      <c r="D86">
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3229,21 +3238,21 @@
         <v>45376</v>
       </c>
       <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
         <v>178</v>
       </c>
-      <c r="C87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D87" t="s">
-        <v>9</v>
+      <c r="D87">
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3252,21 +3261,21 @@
         <v>45377</v>
       </c>
       <c r="G87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" t="s">
         <v>180</v>
       </c>
-      <c r="C88" t="s">
-        <v>181</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
+      <c r="D88">
+        <v>1</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3275,21 +3284,21 @@
         <v>45378</v>
       </c>
       <c r="G88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
         <v>182</v>
       </c>
-      <c r="C89" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" t="s">
-        <v>9</v>
+      <c r="D89">
+        <v>1</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3298,21 +3307,21 @@
         <v>45379</v>
       </c>
       <c r="G89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
         <v>184</v>
       </c>
-      <c r="C90" t="s">
-        <v>185</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
+      <c r="D90">
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3324,18 +3333,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s">
         <v>186</v>
       </c>
-      <c r="C91" t="s">
-        <v>187</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
+      <c r="D91">
+        <v>1</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3347,18 +3356,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
         <v>188</v>
       </c>
-      <c r="C92" t="s">
-        <v>189</v>
-      </c>
-      <c r="D92" t="s">
-        <v>9</v>
+      <c r="D92">
+        <v>1</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3367,21 +3376,21 @@
         <v>45382</v>
       </c>
       <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s">
         <v>190</v>
       </c>
-      <c r="C93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D93" t="s">
-        <v>9</v>
+      <c r="D93">
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3390,21 +3399,21 @@
         <v>45383</v>
       </c>
       <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
         <v>192</v>
       </c>
-      <c r="C94" t="s">
-        <v>193</v>
-      </c>
-      <c r="D94" t="s">
-        <v>9</v>
+      <c r="D94">
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3413,21 +3422,21 @@
         <v>45384</v>
       </c>
       <c r="G94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
         <v>194</v>
       </c>
-      <c r="C95" t="s">
-        <v>195</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
+      <c r="D95">
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3436,21 +3445,21 @@
         <v>45385</v>
       </c>
       <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
         <v>196</v>
       </c>
-      <c r="C96" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
+      <c r="D96">
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3459,21 +3468,21 @@
         <v>45386</v>
       </c>
       <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
         <v>198</v>
       </c>
-      <c r="C97" t="s">
-        <v>199</v>
-      </c>
-      <c r="D97" t="s">
-        <v>9</v>
+      <c r="D97">
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3482,21 +3491,21 @@
         <v>45387</v>
       </c>
       <c r="G97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
         <v>200</v>
       </c>
-      <c r="C98" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
+      <c r="D98">
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3505,21 +3514,21 @@
         <v>45388</v>
       </c>
       <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
         <v>202</v>
       </c>
-      <c r="C99" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" t="s">
-        <v>9</v>
+      <c r="D99">
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3528,21 +3537,21 @@
         <v>45389</v>
       </c>
       <c r="G99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
         <v>204</v>
       </c>
-      <c r="C100" t="s">
-        <v>205</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
+      <c r="D100">
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3551,21 +3560,21 @@
         <v>45390</v>
       </c>
       <c r="G100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
-        <v>207</v>
-      </c>
-      <c r="D101" t="s">
-        <v>9</v>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3574,21 +3583,21 @@
         <v>45391</v>
       </c>
       <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
         <v>208</v>
       </c>
-      <c r="C102" t="s">
-        <v>209</v>
-      </c>
-      <c r="D102" t="s">
-        <v>9</v>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3600,18 +3609,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
         <v>210</v>
       </c>
-      <c r="C103" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" t="s">
-        <v>9</v>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3623,18 +3632,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
         <v>212</v>
       </c>
-      <c r="C104" t="s">
-        <v>213</v>
-      </c>
-      <c r="D104" t="s">
-        <v>9</v>
+      <c r="D104">
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3643,21 +3652,21 @@
         <v>45394</v>
       </c>
       <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" t="s">
         <v>214</v>
       </c>
-      <c r="C105" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
+      <c r="D105">
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3666,21 +3675,21 @@
         <v>45395</v>
       </c>
       <c r="G105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
         <v>216</v>
       </c>
-      <c r="C106" t="s">
-        <v>217</v>
-      </c>
-      <c r="D106" t="s">
-        <v>9</v>
+      <c r="D106">
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3689,21 +3698,21 @@
         <v>45396</v>
       </c>
       <c r="G106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
         <v>218</v>
       </c>
-      <c r="C107" t="s">
-        <v>219</v>
-      </c>
-      <c r="D107" t="s">
-        <v>9</v>
+      <c r="D107">
+        <v>1</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -3712,21 +3721,21 @@
         <v>45397</v>
       </c>
       <c r="G107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
         <v>220</v>
       </c>
-      <c r="C108" t="s">
-        <v>221</v>
-      </c>
-      <c r="D108" t="s">
-        <v>9</v>
+      <c r="D108">
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3735,21 +3744,21 @@
         <v>45398</v>
       </c>
       <c r="G108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
         <v>222</v>
       </c>
-      <c r="C109" t="s">
-        <v>223</v>
-      </c>
-      <c r="D109" t="s">
-        <v>9</v>
+      <c r="D109">
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3758,21 +3767,21 @@
         <v>45399</v>
       </c>
       <c r="G109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" t="s">
         <v>224</v>
       </c>
-      <c r="C110" t="s">
-        <v>225</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
+      <c r="D110">
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3781,21 +3790,21 @@
         <v>45400</v>
       </c>
       <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
         <v>226</v>
       </c>
-      <c r="C111" t="s">
-        <v>227</v>
-      </c>
-      <c r="D111" t="s">
-        <v>9</v>
+      <c r="D111">
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3804,21 +3813,21 @@
         <v>45401</v>
       </c>
       <c r="G111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
         <v>228</v>
       </c>
-      <c r="C112" t="s">
-        <v>229</v>
-      </c>
-      <c r="D112" t="s">
-        <v>9</v>
+      <c r="D112">
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3827,21 +3836,21 @@
         <v>45402</v>
       </c>
       <c r="G112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
         <v>230</v>
       </c>
-      <c r="C113" t="s">
-        <v>231</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
+      <c r="D113">
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3850,21 +3859,21 @@
         <v>45403</v>
       </c>
       <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
         <v>232</v>
       </c>
-      <c r="C114" t="s">
-        <v>233</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
+      <c r="D114">
+        <v>1</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3876,18 +3885,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
         <v>234</v>
       </c>
-      <c r="C115" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" t="s">
-        <v>9</v>
+      <c r="D115">
+        <v>1</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3899,18 +3908,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
         <v>236</v>
       </c>
-      <c r="C116" t="s">
-        <v>237</v>
-      </c>
-      <c r="D116" t="s">
-        <v>9</v>
+      <c r="D116">
+        <v>1</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3919,21 +3928,21 @@
         <v>45406</v>
       </c>
       <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" t="s">
         <v>238</v>
       </c>
-      <c r="C117" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" t="s">
-        <v>9</v>
+      <c r="D117">
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3942,21 +3951,21 @@
         <v>45407</v>
       </c>
       <c r="G117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" t="s">
         <v>240</v>
       </c>
-      <c r="C118" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" t="s">
-        <v>9</v>
+      <c r="D118">
+        <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3965,21 +3974,21 @@
         <v>45408</v>
       </c>
       <c r="G118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s">
         <v>242</v>
       </c>
-      <c r="C119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D119" t="s">
-        <v>9</v>
+      <c r="D119">
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3988,21 +3997,21 @@
         <v>45409</v>
       </c>
       <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
         <v>244</v>
       </c>
-      <c r="C120" t="s">
-        <v>245</v>
-      </c>
-      <c r="D120" t="s">
-        <v>9</v>
+      <c r="D120">
+        <v>1</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4011,21 +4020,21 @@
         <v>45410</v>
       </c>
       <c r="G120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
-        <v>247</v>
-      </c>
-      <c r="D121" t="s">
-        <v>9</v>
+      <c r="D121">
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4034,21 +4043,21 @@
         <v>45411</v>
       </c>
       <c r="G121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" t="s">
         <v>248</v>
       </c>
-      <c r="C122" t="s">
-        <v>249</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
+      <c r="D122">
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4057,21 +4066,21 @@
         <v>45412</v>
       </c>
       <c r="G122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" t="s">
         <v>250</v>
       </c>
-      <c r="C123" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>9</v>
+      <c r="D123">
+        <v>1</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4080,21 +4089,21 @@
         <v>45413</v>
       </c>
       <c r="G123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s">
         <v>252</v>
       </c>
-      <c r="C124" t="s">
-        <v>253</v>
-      </c>
-      <c r="D124" t="s">
-        <v>9</v>
+      <c r="D124">
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4103,21 +4112,21 @@
         <v>45414</v>
       </c>
       <c r="G124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s">
         <v>254</v>
       </c>
-      <c r="C125" t="s">
-        <v>255</v>
-      </c>
-      <c r="D125" t="s">
-        <v>9</v>
+      <c r="D125">
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4126,21 +4135,21 @@
         <v>45415</v>
       </c>
       <c r="G125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
         <v>256</v>
       </c>
-      <c r="C126" t="s">
-        <v>257</v>
-      </c>
-      <c r="D126" t="s">
-        <v>9</v>
+      <c r="D126">
+        <v>1</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4152,18 +4161,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" t="s">
         <v>258</v>
       </c>
-      <c r="C127" t="s">
-        <v>259</v>
-      </c>
-      <c r="D127" t="s">
-        <v>9</v>
+      <c r="D127">
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4175,18 +4184,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" t="s">
         <v>260</v>
       </c>
-      <c r="C128" t="s">
-        <v>261</v>
-      </c>
-      <c r="D128" t="s">
-        <v>9</v>
+      <c r="D128">
+        <v>1</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4195,21 +4204,21 @@
         <v>45418</v>
       </c>
       <c r="G128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" t="s">
         <v>262</v>
       </c>
-      <c r="C129" t="s">
-        <v>263</v>
-      </c>
-      <c r="D129" t="s">
-        <v>9</v>
+      <c r="D129">
+        <v>1</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4218,21 +4227,21 @@
         <v>45419</v>
       </c>
       <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
         <v>264</v>
       </c>
-      <c r="C130" t="s">
-        <v>265</v>
-      </c>
-      <c r="D130" t="s">
-        <v>9</v>
+      <c r="D130">
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4241,21 +4250,21 @@
         <v>45420</v>
       </c>
       <c r="G130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" t="s">
         <v>266</v>
       </c>
-      <c r="C131" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" t="s">
-        <v>9</v>
+      <c r="D131">
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4264,21 +4273,21 @@
         <v>45421</v>
       </c>
       <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" t="s">
         <v>268</v>
       </c>
-      <c r="C132" t="s">
-        <v>269</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
+      <c r="D132">
+        <v>1</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4287,21 +4296,21 @@
         <v>45422</v>
       </c>
       <c r="G132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>269</v>
+      </c>
+      <c r="C133" t="s">
         <v>270</v>
       </c>
-      <c r="C133" t="s">
-        <v>271</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
+      <c r="D133">
+        <v>1</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4310,21 +4319,21 @@
         <v>45423</v>
       </c>
       <c r="G133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" t="s">
         <v>272</v>
       </c>
-      <c r="C134" t="s">
-        <v>273</v>
-      </c>
-      <c r="D134" t="s">
-        <v>9</v>
+      <c r="D134">
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4333,21 +4342,21 @@
         <v>45424</v>
       </c>
       <c r="G134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" t="s">
         <v>274</v>
       </c>
-      <c r="C135" t="s">
-        <v>275</v>
-      </c>
-      <c r="D135" t="s">
-        <v>9</v>
+      <c r="D135">
+        <v>1</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4356,21 +4365,21 @@
         <v>45425</v>
       </c>
       <c r="G135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
+        <v>275</v>
+      </c>
+      <c r="C136" t="s">
         <v>276</v>
       </c>
-      <c r="C136" t="s">
-        <v>277</v>
-      </c>
-      <c r="D136" t="s">
-        <v>9</v>
+      <c r="D136">
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4379,10 +4388,12 @@
         <v>45426</v>
       </c>
       <c r="G136">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/커뮤니티 더미데이터.xlsx
+++ b/커뮤니티 더미데이터.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87FE89-544E-4253-A713-AAD469D15E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4EAFB2-B2E9-4107-A077-CEBB0B272EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1290" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="278">
   <si>
     <t>COMMUNITY_NUMBER</t>
   </si>
@@ -63,6 +58,9 @@
   </si>
   <si>
     <t>반갑습니다~~1</t>
+  </si>
+  <si>
+    <t>잡담</t>
   </si>
   <si>
     <t>안녕하세요2</t>
@@ -873,19 +871,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1248,11 +1239,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
@@ -1263,7 +1254,7 @@
     <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1296,8 +1287,8 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1306,21 +1297,21 @@
         <v>45292</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1329,21 +1320,21 @@
         <v>45293</v>
       </c>
       <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1352,21 +1343,21 @@
         <v>45294</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1375,21 +1366,21 @@
         <v>45295</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1401,18 +1392,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1424,18 +1415,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1444,21 +1435,21 @@
         <v>45298</v>
       </c>
       <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1467,21 +1458,21 @@
         <v>45299</v>
       </c>
       <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1490,21 +1481,21 @@
         <v>45300</v>
       </c>
       <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1513,21 +1504,21 @@
         <v>45301</v>
       </c>
       <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1536,21 +1527,21 @@
         <v>45302</v>
       </c>
       <c r="G12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1559,21 +1550,21 @@
         <v>45303</v>
       </c>
       <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1582,21 +1573,21 @@
         <v>45304</v>
       </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1605,21 +1596,21 @@
         <v>45305</v>
       </c>
       <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1628,21 +1619,21 @@
         <v>45306</v>
       </c>
       <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1651,21 +1642,21 @@
         <v>45307</v>
       </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1677,18 +1668,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1700,18 +1691,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1720,21 +1711,21 @@
         <v>45310</v>
       </c>
       <c r="G20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1743,21 +1734,21 @@
         <v>45311</v>
       </c>
       <c r="G21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1766,21 +1757,21 @@
         <v>45312</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1789,21 +1780,21 @@
         <v>45313</v>
       </c>
       <c r="G23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1812,21 +1803,21 @@
         <v>45314</v>
       </c>
       <c r="G24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1835,21 +1826,21 @@
         <v>45315</v>
       </c>
       <c r="G25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1858,21 +1849,21 @@
         <v>45316</v>
       </c>
       <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1881,21 +1872,21 @@
         <v>45317</v>
       </c>
       <c r="G27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1904,21 +1895,21 @@
         <v>45318</v>
       </c>
       <c r="G28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1927,21 +1918,21 @@
         <v>45319</v>
       </c>
       <c r="G29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1953,18 +1944,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1976,18 +1967,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1996,21 +1987,21 @@
         <v>45322</v>
       </c>
       <c r="G32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2019,21 +2010,21 @@
         <v>45323</v>
       </c>
       <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2042,21 +2033,21 @@
         <v>45324</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2065,21 +2056,21 @@
         <v>45325</v>
       </c>
       <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2088,21 +2079,21 @@
         <v>45326</v>
       </c>
       <c r="G36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2111,21 +2102,21 @@
         <v>45327</v>
       </c>
       <c r="G37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2134,21 +2125,21 @@
         <v>45328</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2157,21 +2148,21 @@
         <v>45329</v>
       </c>
       <c r="G39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2180,21 +2171,21 @@
         <v>45330</v>
       </c>
       <c r="G40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2203,21 +2194,21 @@
         <v>45331</v>
       </c>
       <c r="G41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2229,18 +2220,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2252,18 +2243,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2272,21 +2263,21 @@
         <v>45334</v>
       </c>
       <c r="G44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2295,21 +2286,21 @@
         <v>45335</v>
       </c>
       <c r="G45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2318,21 +2309,21 @@
         <v>45336</v>
       </c>
       <c r="G46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2341,21 +2332,21 @@
         <v>45337</v>
       </c>
       <c r="G47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2364,21 +2355,21 @@
         <v>45338</v>
       </c>
       <c r="G48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2387,21 +2378,21 @@
         <v>45339</v>
       </c>
       <c r="G49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2410,21 +2401,21 @@
         <v>45340</v>
       </c>
       <c r="G50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2433,21 +2424,21 @@
         <v>45341</v>
       </c>
       <c r="G51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2456,21 +2447,21 @@
         <v>45342</v>
       </c>
       <c r="G52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2479,21 +2470,21 @@
         <v>45343</v>
       </c>
       <c r="G53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2505,18 +2496,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2528,18 +2519,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2548,21 +2539,21 @@
         <v>45346</v>
       </c>
       <c r="G56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2571,21 +2562,21 @@
         <v>45347</v>
       </c>
       <c r="G57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2594,21 +2585,21 @@
         <v>45348</v>
       </c>
       <c r="G58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2617,21 +2608,21 @@
         <v>45349</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
+        <v>125</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2640,21 +2631,21 @@
         <v>45350</v>
       </c>
       <c r="G60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2663,21 +2654,21 @@
         <v>45351</v>
       </c>
       <c r="G61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
+        <v>129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2686,21 +2677,21 @@
         <v>45352</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2709,21 +2700,21 @@
         <v>45353</v>
       </c>
       <c r="G63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2732,21 +2723,21 @@
         <v>45354</v>
       </c>
       <c r="G64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2755,21 +2746,21 @@
         <v>45355</v>
       </c>
       <c r="G65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2781,18 +2772,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2804,18 +2795,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2824,21 +2815,21 @@
         <v>45358</v>
       </c>
       <c r="G68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
+        <v>143</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2847,21 +2838,21 @@
         <v>45359</v>
       </c>
       <c r="G69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>144</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2870,21 +2861,21 @@
         <v>45360</v>
       </c>
       <c r="G70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2893,21 +2884,21 @@
         <v>45361</v>
       </c>
       <c r="G71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2916,21 +2907,21 @@
         <v>45362</v>
       </c>
       <c r="G72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2939,21 +2930,21 @@
         <v>45363</v>
       </c>
       <c r="G73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2962,21 +2953,21 @@
         <v>45364</v>
       </c>
       <c r="G74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2985,21 +2976,21 @@
         <v>45365</v>
       </c>
       <c r="G75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3008,21 +2999,21 @@
         <v>45366</v>
       </c>
       <c r="G76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
+        <v>159</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3031,21 +3022,21 @@
         <v>45367</v>
       </c>
       <c r="G77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3057,18 +3048,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3080,18 +3071,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
+        <v>165</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3100,21 +3091,21 @@
         <v>45370</v>
       </c>
       <c r="G80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3123,21 +3114,21 @@
         <v>45371</v>
       </c>
       <c r="G81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3146,21 +3137,21 @@
         <v>45372</v>
       </c>
       <c r="G82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
+        <v>171</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3169,21 +3160,21 @@
         <v>45373</v>
       </c>
       <c r="G83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
+        <v>173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3192,21 +3183,21 @@
         <v>45374</v>
       </c>
       <c r="G84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
+        <v>175</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3215,21 +3206,21 @@
         <v>45375</v>
       </c>
       <c r="G85">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3238,21 +3229,21 @@
         <v>45376</v>
       </c>
       <c r="G86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3261,21 +3252,21 @@
         <v>45377</v>
       </c>
       <c r="G87">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3284,21 +3275,21 @@
         <v>45378</v>
       </c>
       <c r="G88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
+        <v>183</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3307,21 +3298,21 @@
         <v>45379</v>
       </c>
       <c r="G89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
+        <v>185</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3333,18 +3324,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>186</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
+        <v>187</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3356,18 +3347,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3376,21 +3367,21 @@
         <v>45382</v>
       </c>
       <c r="G92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3399,21 +3390,21 @@
         <v>45383</v>
       </c>
       <c r="G93">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3422,21 +3413,21 @@
         <v>45384</v>
       </c>
       <c r="G94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
+        <v>195</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3445,21 +3436,21 @@
         <v>45385</v>
       </c>
       <c r="G95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
+        <v>197</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3468,21 +3459,21 @@
         <v>45386</v>
       </c>
       <c r="G96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
+        <v>199</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3491,21 +3482,21 @@
         <v>45387</v>
       </c>
       <c r="G97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3514,21 +3505,21 @@
         <v>45388</v>
       </c>
       <c r="G98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3537,21 +3528,21 @@
         <v>45389</v>
       </c>
       <c r="G99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
+        <v>205</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3560,21 +3551,21 @@
         <v>45390</v>
       </c>
       <c r="G100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
+        <v>207</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3583,21 +3574,21 @@
         <v>45391</v>
       </c>
       <c r="G101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
+        <v>209</v>
+      </c>
+      <c r="D102" t="s">
+        <v>9</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3609,18 +3600,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3632,18 +3623,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
+        <v>213</v>
+      </c>
+      <c r="D104" t="s">
+        <v>9</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3652,21 +3643,21 @@
         <v>45394</v>
       </c>
       <c r="G104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3675,21 +3666,21 @@
         <v>45395</v>
       </c>
       <c r="G105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
+        <v>217</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3698,21 +3689,21 @@
         <v>45396</v>
       </c>
       <c r="G106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -3721,21 +3712,21 @@
         <v>45397</v>
       </c>
       <c r="G107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3744,21 +3735,21 @@
         <v>45398</v>
       </c>
       <c r="G108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="D109" t="s">
+        <v>9</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3767,21 +3758,21 @@
         <v>45399</v>
       </c>
       <c r="G109">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
+        <v>225</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3790,21 +3781,21 @@
         <v>45400</v>
       </c>
       <c r="G110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
-      </c>
-      <c r="D111">
-        <v>1</v>
+        <v>227</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3813,21 +3804,21 @@
         <v>45401</v>
       </c>
       <c r="G111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C112" t="s">
-        <v>228</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
+        <v>229</v>
+      </c>
+      <c r="D112" t="s">
+        <v>9</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3836,21 +3827,21 @@
         <v>45402</v>
       </c>
       <c r="G112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3859,21 +3850,21 @@
         <v>45403</v>
       </c>
       <c r="G113">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C114" t="s">
-        <v>232</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
+        <v>233</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3885,18 +3876,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
+        <v>235</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3908,18 +3899,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3928,21 +3919,21 @@
         <v>45406</v>
       </c>
       <c r="G116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
+        <v>239</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3951,21 +3942,21 @@
         <v>45407</v>
       </c>
       <c r="G117">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3974,21 +3965,21 @@
         <v>45408</v>
       </c>
       <c r="G118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
+        <v>243</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3997,21 +3988,21 @@
         <v>45409</v>
       </c>
       <c r="G119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
+        <v>245</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4020,21 +4011,21 @@
         <v>45410</v>
       </c>
       <c r="G120">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4043,21 +4034,21 @@
         <v>45411</v>
       </c>
       <c r="G121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4066,21 +4057,21 @@
         <v>45412</v>
       </c>
       <c r="G122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
+        <v>251</v>
+      </c>
+      <c r="D123" t="s">
+        <v>9</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4089,21 +4080,21 @@
         <v>45413</v>
       </c>
       <c r="G123">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="D124" t="s">
+        <v>9</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4112,21 +4103,21 @@
         <v>45414</v>
       </c>
       <c r="G124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
+        <v>255</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4135,21 +4126,21 @@
         <v>45415</v>
       </c>
       <c r="G125">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
+        <v>257</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4161,18 +4152,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
+        <v>259</v>
+      </c>
+      <c r="D127" t="s">
+        <v>9</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4184,18 +4175,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="D128" t="s">
+        <v>9</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4204,21 +4195,21 @@
         <v>45418</v>
       </c>
       <c r="G128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C129" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="D129" t="s">
+        <v>9</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4227,21 +4218,21 @@
         <v>45419</v>
       </c>
       <c r="G129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C130" t="s">
-        <v>264</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
+        <v>265</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -4250,21 +4241,21 @@
         <v>45420</v>
       </c>
       <c r="G130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
+        <v>267</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4273,21 +4264,21 @@
         <v>45421</v>
       </c>
       <c r="G131">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
-        <v>268</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
+        <v>269</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4296,21 +4287,21 @@
         <v>45422</v>
       </c>
       <c r="G132">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C133" t="s">
-        <v>270</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
+        <v>271</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4319,21 +4310,21 @@
         <v>45423</v>
       </c>
       <c r="G133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C134" t="s">
-        <v>272</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
+        <v>273</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4342,21 +4333,21 @@
         <v>45424</v>
       </c>
       <c r="G134">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>274</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
+        <v>275</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4365,21 +4356,21 @@
         <v>45425</v>
       </c>
       <c r="G135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
+        <v>277</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4388,12 +4379,10 @@
         <v>45426</v>
       </c>
       <c r="G136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/커뮤니티 더미데이터.xlsx
+++ b/커뮤니티 더미데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87FE89-544E-4253-A713-AAD469D15E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80F323-A790-4C55-AAE6-B4A78425FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1290" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="533">
   <si>
     <t>COMMUNITY_NUMBER</t>
   </si>
@@ -867,6 +867,774 @@
   </si>
   <si>
     <t>반갑습니다~~135</t>
+  </si>
+  <si>
+    <t>안녕하세요136</t>
+  </si>
+  <si>
+    <t>반갑습니다~~136</t>
+  </si>
+  <si>
+    <t>안녕하세요137</t>
+  </si>
+  <si>
+    <t>반갑습니다~~137</t>
+  </si>
+  <si>
+    <t>안녕하세요138</t>
+  </si>
+  <si>
+    <t>반갑습니다~~138</t>
+  </si>
+  <si>
+    <t>안녕하세요139</t>
+  </si>
+  <si>
+    <t>반갑습니다~~139</t>
+  </si>
+  <si>
+    <t>안녕하세요140</t>
+  </si>
+  <si>
+    <t>반갑습니다~~140</t>
+  </si>
+  <si>
+    <t>안녕하세요141</t>
+  </si>
+  <si>
+    <t>반갑습니다~~141</t>
+  </si>
+  <si>
+    <t>안녕하세요142</t>
+  </si>
+  <si>
+    <t>반갑습니다~~142</t>
+  </si>
+  <si>
+    <t>안녕하세요143</t>
+  </si>
+  <si>
+    <t>반갑습니다~~143</t>
+  </si>
+  <si>
+    <t>안녕하세요144</t>
+  </si>
+  <si>
+    <t>반갑습니다~~144</t>
+  </si>
+  <si>
+    <t>안녕하세요145</t>
+  </si>
+  <si>
+    <t>반갑습니다~~145</t>
+  </si>
+  <si>
+    <t>안녕하세요146</t>
+  </si>
+  <si>
+    <t>반갑습니다~~146</t>
+  </si>
+  <si>
+    <t>안녕하세요147</t>
+  </si>
+  <si>
+    <t>반갑습니다~~147</t>
+  </si>
+  <si>
+    <t>안녕하세요148</t>
+  </si>
+  <si>
+    <t>반갑습니다~~148</t>
+  </si>
+  <si>
+    <t>안녕하세요149</t>
+  </si>
+  <si>
+    <t>반갑습니다~~149</t>
+  </si>
+  <si>
+    <t>안녕하세요150</t>
+  </si>
+  <si>
+    <t>반갑습니다~~150</t>
+  </si>
+  <si>
+    <t>안녕하세요151</t>
+  </si>
+  <si>
+    <t>반갑습니다~~151</t>
+  </si>
+  <si>
+    <t>안녕하세요152</t>
+  </si>
+  <si>
+    <t>반갑습니다~~152</t>
+  </si>
+  <si>
+    <t>안녕하세요153</t>
+  </si>
+  <si>
+    <t>반갑습니다~~153</t>
+  </si>
+  <si>
+    <t>안녕하세요154</t>
+  </si>
+  <si>
+    <t>반갑습니다~~154</t>
+  </si>
+  <si>
+    <t>안녕하세요155</t>
+  </si>
+  <si>
+    <t>반갑습니다~~155</t>
+  </si>
+  <si>
+    <t>안녕하세요156</t>
+  </si>
+  <si>
+    <t>반갑습니다~~156</t>
+  </si>
+  <si>
+    <t>안녕하세요157</t>
+  </si>
+  <si>
+    <t>반갑습니다~~157</t>
+  </si>
+  <si>
+    <t>안녕하세요158</t>
+  </si>
+  <si>
+    <t>반갑습니다~~158</t>
+  </si>
+  <si>
+    <t>안녕하세요159</t>
+  </si>
+  <si>
+    <t>반갑습니다~~159</t>
+  </si>
+  <si>
+    <t>안녕하세요160</t>
+  </si>
+  <si>
+    <t>반갑습니다~~160</t>
+  </si>
+  <si>
+    <t>안녕하세요161</t>
+  </si>
+  <si>
+    <t>반갑습니다~~161</t>
+  </si>
+  <si>
+    <t>안녕하세요162</t>
+  </si>
+  <si>
+    <t>반갑습니다~~162</t>
+  </si>
+  <si>
+    <t>안녕하세요163</t>
+  </si>
+  <si>
+    <t>반갑습니다~~163</t>
+  </si>
+  <si>
+    <t>안녕하세요164</t>
+  </si>
+  <si>
+    <t>반갑습니다~~164</t>
+  </si>
+  <si>
+    <t>안녕하세요165</t>
+  </si>
+  <si>
+    <t>반갑습니다~~165</t>
+  </si>
+  <si>
+    <t>안녕하세요166</t>
+  </si>
+  <si>
+    <t>반갑습니다~~166</t>
+  </si>
+  <si>
+    <t>안녕하세요167</t>
+  </si>
+  <si>
+    <t>반갑습니다~~167</t>
+  </si>
+  <si>
+    <t>안녕하세요168</t>
+  </si>
+  <si>
+    <t>반갑습니다~~168</t>
+  </si>
+  <si>
+    <t>안녕하세요169</t>
+  </si>
+  <si>
+    <t>반갑습니다~~169</t>
+  </si>
+  <si>
+    <t>안녕하세요170</t>
+  </si>
+  <si>
+    <t>반갑습니다~~170</t>
+  </si>
+  <si>
+    <t>안녕하세요171</t>
+  </si>
+  <si>
+    <t>반갑습니다~~171</t>
+  </si>
+  <si>
+    <t>안녕하세요172</t>
+  </si>
+  <si>
+    <t>반갑습니다~~172</t>
+  </si>
+  <si>
+    <t>안녕하세요173</t>
+  </si>
+  <si>
+    <t>반갑습니다~~173</t>
+  </si>
+  <si>
+    <t>안녕하세요174</t>
+  </si>
+  <si>
+    <t>반갑습니다~~174</t>
+  </si>
+  <si>
+    <t>안녕하세요175</t>
+  </si>
+  <si>
+    <t>반갑습니다~~175</t>
+  </si>
+  <si>
+    <t>안녕하세요176</t>
+  </si>
+  <si>
+    <t>반갑습니다~~176</t>
+  </si>
+  <si>
+    <t>안녕하세요177</t>
+  </si>
+  <si>
+    <t>반갑습니다~~177</t>
+  </si>
+  <si>
+    <t>안녕하세요178</t>
+  </si>
+  <si>
+    <t>반갑습니다~~178</t>
+  </si>
+  <si>
+    <t>안녕하세요179</t>
+  </si>
+  <si>
+    <t>반갑습니다~~179</t>
+  </si>
+  <si>
+    <t>안녕하세요180</t>
+  </si>
+  <si>
+    <t>반갑습니다~~180</t>
+  </si>
+  <si>
+    <t>안녕하세요181</t>
+  </si>
+  <si>
+    <t>반갑습니다~~181</t>
+  </si>
+  <si>
+    <t>안녕하세요182</t>
+  </si>
+  <si>
+    <t>반갑습니다~~182</t>
+  </si>
+  <si>
+    <t>안녕하세요183</t>
+  </si>
+  <si>
+    <t>반갑습니다~~183</t>
+  </si>
+  <si>
+    <t>안녕하세요184</t>
+  </si>
+  <si>
+    <t>반갑습니다~~184</t>
+  </si>
+  <si>
+    <t>안녕하세요185</t>
+  </si>
+  <si>
+    <t>반갑습니다~~185</t>
+  </si>
+  <si>
+    <t>안녕하세요186</t>
+  </si>
+  <si>
+    <t>반갑습니다~~186</t>
+  </si>
+  <si>
+    <t>안녕하세요187</t>
+  </si>
+  <si>
+    <t>반갑습니다~~187</t>
+  </si>
+  <si>
+    <t>안녕하세요188</t>
+  </si>
+  <si>
+    <t>반갑습니다~~188</t>
+  </si>
+  <si>
+    <t>안녕하세요189</t>
+  </si>
+  <si>
+    <t>반갑습니다~~189</t>
+  </si>
+  <si>
+    <t>안녕하세요190</t>
+  </si>
+  <si>
+    <t>반갑습니다~~190</t>
+  </si>
+  <si>
+    <t>안녕하세요191</t>
+  </si>
+  <si>
+    <t>반갑습니다~~191</t>
+  </si>
+  <si>
+    <t>안녕하세요192</t>
+  </si>
+  <si>
+    <t>반갑습니다~~192</t>
+  </si>
+  <si>
+    <t>안녕하세요193</t>
+  </si>
+  <si>
+    <t>반갑습니다~~193</t>
+  </si>
+  <si>
+    <t>안녕하세요194</t>
+  </si>
+  <si>
+    <t>반갑습니다~~194</t>
+  </si>
+  <si>
+    <t>안녕하세요195</t>
+  </si>
+  <si>
+    <t>반갑습니다~~195</t>
+  </si>
+  <si>
+    <t>안녕하세요196</t>
+  </si>
+  <si>
+    <t>반갑습니다~~196</t>
+  </si>
+  <si>
+    <t>안녕하세요197</t>
+  </si>
+  <si>
+    <t>반갑습니다~~197</t>
+  </si>
+  <si>
+    <t>안녕하세요198</t>
+  </si>
+  <si>
+    <t>반갑습니다~~198</t>
+  </si>
+  <si>
+    <t>안녕하세요199</t>
+  </si>
+  <si>
+    <t>반갑습니다~~199</t>
+  </si>
+  <si>
+    <t>안녕하세요200</t>
+  </si>
+  <si>
+    <t>반갑습니다~~200</t>
+  </si>
+  <si>
+    <t>안녕하세요201</t>
+  </si>
+  <si>
+    <t>반갑습니다~~201</t>
+  </si>
+  <si>
+    <t>안녕하세요202</t>
+  </si>
+  <si>
+    <t>반갑습니다~~202</t>
+  </si>
+  <si>
+    <t>안녕하세요203</t>
+  </si>
+  <si>
+    <t>반갑습니다~~203</t>
+  </si>
+  <si>
+    <t>안녕하세요204</t>
+  </si>
+  <si>
+    <t>반갑습니다~~204</t>
+  </si>
+  <si>
+    <t>안녕하세요205</t>
+  </si>
+  <si>
+    <t>반갑습니다~~205</t>
+  </si>
+  <si>
+    <t>안녕하세요206</t>
+  </si>
+  <si>
+    <t>반갑습니다~~206</t>
+  </si>
+  <si>
+    <t>안녕하세요207</t>
+  </si>
+  <si>
+    <t>반갑습니다~~207</t>
+  </si>
+  <si>
+    <t>안녕하세요208</t>
+  </si>
+  <si>
+    <t>반갑습니다~~208</t>
+  </si>
+  <si>
+    <t>안녕하세요209</t>
+  </si>
+  <si>
+    <t>반갑습니다~~209</t>
+  </si>
+  <si>
+    <t>안녕하세요210</t>
+  </si>
+  <si>
+    <t>반갑습니다~~210</t>
+  </si>
+  <si>
+    <t>안녕하세요211</t>
+  </si>
+  <si>
+    <t>반갑습니다~~211</t>
+  </si>
+  <si>
+    <t>안녕하세요212</t>
+  </si>
+  <si>
+    <t>반갑습니다~~212</t>
+  </si>
+  <si>
+    <t>안녕하세요213</t>
+  </si>
+  <si>
+    <t>반갑습니다~~213</t>
+  </si>
+  <si>
+    <t>안녕하세요214</t>
+  </si>
+  <si>
+    <t>반갑습니다~~214</t>
+  </si>
+  <si>
+    <t>안녕하세요215</t>
+  </si>
+  <si>
+    <t>반갑습니다~~215</t>
+  </si>
+  <si>
+    <t>안녕하세요216</t>
+  </si>
+  <si>
+    <t>반갑습니다~~216</t>
+  </si>
+  <si>
+    <t>안녕하세요217</t>
+  </si>
+  <si>
+    <t>반갑습니다~~217</t>
+  </si>
+  <si>
+    <t>안녕하세요218</t>
+  </si>
+  <si>
+    <t>반갑습니다~~218</t>
+  </si>
+  <si>
+    <t>안녕하세요219</t>
+  </si>
+  <si>
+    <t>반갑습니다~~219</t>
+  </si>
+  <si>
+    <t>안녕하세요220</t>
+  </si>
+  <si>
+    <t>반갑습니다~~220</t>
+  </si>
+  <si>
+    <t>안녕하세요221</t>
+  </si>
+  <si>
+    <t>반갑습니다~~221</t>
+  </si>
+  <si>
+    <t>안녕하세요222</t>
+  </si>
+  <si>
+    <t>반갑습니다~~222</t>
+  </si>
+  <si>
+    <t>안녕하세요223</t>
+  </si>
+  <si>
+    <t>반갑습니다~~223</t>
+  </si>
+  <si>
+    <t>안녕하세요224</t>
+  </si>
+  <si>
+    <t>반갑습니다~~224</t>
+  </si>
+  <si>
+    <t>안녕하세요225</t>
+  </si>
+  <si>
+    <t>반갑습니다~~225</t>
+  </si>
+  <si>
+    <t>안녕하세요226</t>
+  </si>
+  <si>
+    <t>반갑습니다~~226</t>
+  </si>
+  <si>
+    <t>안녕하세요227</t>
+  </si>
+  <si>
+    <t>반갑습니다~~227</t>
+  </si>
+  <si>
+    <t>안녕하세요228</t>
+  </si>
+  <si>
+    <t>반갑습니다~~228</t>
+  </si>
+  <si>
+    <t>안녕하세요229</t>
+  </si>
+  <si>
+    <t>반갑습니다~~229</t>
+  </si>
+  <si>
+    <t>안녕하세요230</t>
+  </si>
+  <si>
+    <t>반갑습니다~~230</t>
+  </si>
+  <si>
+    <t>안녕하세요231</t>
+  </si>
+  <si>
+    <t>반갑습니다~~231</t>
+  </si>
+  <si>
+    <t>안녕하세요232</t>
+  </si>
+  <si>
+    <t>반갑습니다~~232</t>
+  </si>
+  <si>
+    <t>안녕하세요233</t>
+  </si>
+  <si>
+    <t>반갑습니다~~233</t>
+  </si>
+  <si>
+    <t>안녕하세요234</t>
+  </si>
+  <si>
+    <t>반갑습니다~~234</t>
+  </si>
+  <si>
+    <t>안녕하세요235</t>
+  </si>
+  <si>
+    <t>반갑습니다~~235</t>
+  </si>
+  <si>
+    <t>안녕하세요236</t>
+  </si>
+  <si>
+    <t>반갑습니다~~236</t>
+  </si>
+  <si>
+    <t>안녕하세요237</t>
+  </si>
+  <si>
+    <t>반갑습니다~~237</t>
+  </si>
+  <si>
+    <t>안녕하세요238</t>
+  </si>
+  <si>
+    <t>반갑습니다~~238</t>
+  </si>
+  <si>
+    <t>안녕하세요239</t>
+  </si>
+  <si>
+    <t>반갑습니다~~239</t>
+  </si>
+  <si>
+    <t>안녕하세요240</t>
+  </si>
+  <si>
+    <t>반갑습니다~~240</t>
+  </si>
+  <si>
+    <t>안녕하세요241</t>
+  </si>
+  <si>
+    <t>반갑습니다~~241</t>
+  </si>
+  <si>
+    <t>안녕하세요242</t>
+  </si>
+  <si>
+    <t>반갑습니다~~242</t>
+  </si>
+  <si>
+    <t>안녕하세요243</t>
+  </si>
+  <si>
+    <t>반갑습니다~~243</t>
+  </si>
+  <si>
+    <t>안녕하세요244</t>
+  </si>
+  <si>
+    <t>반갑습니다~~244</t>
+  </si>
+  <si>
+    <t>안녕하세요245</t>
+  </si>
+  <si>
+    <t>반갑습니다~~245</t>
+  </si>
+  <si>
+    <t>안녕하세요246</t>
+  </si>
+  <si>
+    <t>반갑습니다~~246</t>
+  </si>
+  <si>
+    <t>안녕하세요247</t>
+  </si>
+  <si>
+    <t>반갑습니다~~247</t>
+  </si>
+  <si>
+    <t>안녕하세요248</t>
+  </si>
+  <si>
+    <t>반갑습니다~~248</t>
+  </si>
+  <si>
+    <t>안녕하세요249</t>
+  </si>
+  <si>
+    <t>반갑습니다~~249</t>
+  </si>
+  <si>
+    <t>안녕하세요250</t>
+  </si>
+  <si>
+    <t>반갑습니다~~250</t>
+  </si>
+  <si>
+    <t>안녕하세요251</t>
+  </si>
+  <si>
+    <t>반갑습니다~~251</t>
+  </si>
+  <si>
+    <t>안녕하세요252</t>
+  </si>
+  <si>
+    <t>반갑습니다~~252</t>
+  </si>
+  <si>
+    <t>안녕하세요253</t>
+  </si>
+  <si>
+    <t>반갑습니다~~253</t>
+  </si>
+  <si>
+    <t>안녕하세요254</t>
+  </si>
+  <si>
+    <t>반갑습니다~~254</t>
+  </si>
+  <si>
+    <t>안녕하세요255</t>
+  </si>
+  <si>
+    <t>반갑습니다~~255</t>
+  </si>
+  <si>
+    <t>안녕하세요256</t>
+  </si>
+  <si>
+    <t>반갑습니다~~256</t>
+  </si>
+  <si>
+    <t>안녕하세요257</t>
+  </si>
+  <si>
+    <t>반갑습니다~~257</t>
+  </si>
+  <si>
+    <t>안녕하세요258</t>
+  </si>
+  <si>
+    <t>반갑습니다~~258</t>
+  </si>
+  <si>
+    <t>안녕하세요259</t>
+  </si>
+  <si>
+    <t>반갑습니다~~259</t>
+  </si>
+  <si>
+    <t>안녕하세요260</t>
+  </si>
+  <si>
+    <t>반갑습니다~~260</t>
+  </si>
+  <si>
+    <t>안녕하세요261</t>
+  </si>
+  <si>
+    <t>반갑습니다~~261</t>
+  </si>
+  <si>
+    <t>안녕하세요262</t>
+  </si>
+  <si>
+    <t>반갑습니다~~262</t>
+  </si>
+  <si>
+    <t>안녕하세요263</t>
+  </si>
+  <si>
+    <t>반갑습니다~~263</t>
   </si>
 </sst>
 </file>
@@ -1246,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130:G264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4391,6 +5159,2971 @@
         <v>4</v>
       </c>
     </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" t="s">
+        <v>278</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1">
+        <v>45427</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" t="s">
+        <v>280</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1">
+        <v>45428</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139" t="s">
+        <v>282</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <v>45429</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>283</v>
+      </c>
+      <c r="C140" t="s">
+        <v>284</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1">
+        <v>45430</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141" t="s">
+        <v>286</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" s="1">
+        <v>45431</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" t="s">
+        <v>288</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" s="1">
+        <v>45432</v>
+      </c>
+      <c r="G142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>290</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1">
+        <v>45433</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" t="s">
+        <v>292</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1">
+        <v>45434</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>293</v>
+      </c>
+      <c r="C145" t="s">
+        <v>294</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1">
+        <v>45435</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" t="s">
+        <v>296</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>45436</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>297</v>
+      </c>
+      <c r="C147" t="s">
+        <v>298</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1">
+        <v>45437</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" t="s">
+        <v>300</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1">
+        <v>45438</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" t="s">
+        <v>302</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1">
+        <v>45439</v>
+      </c>
+      <c r="G149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>303</v>
+      </c>
+      <c r="C150" t="s">
+        <v>304</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>45440</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <v>45441</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" t="s">
+        <v>308</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <v>45442</v>
+      </c>
+      <c r="G152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" t="s">
+        <v>310</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" s="1">
+        <v>45443</v>
+      </c>
+      <c r="G153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>311</v>
+      </c>
+      <c r="C154" t="s">
+        <v>312</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <v>45444</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s">
+        <v>314</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <v>45445</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>315</v>
+      </c>
+      <c r="C156" t="s">
+        <v>316</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <v>45446</v>
+      </c>
+      <c r="G156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>317</v>
+      </c>
+      <c r="C157" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>45447</v>
+      </c>
+      <c r="G157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>45448</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>321</v>
+      </c>
+      <c r="C159" t="s">
+        <v>322</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>45449</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s">
+        <v>324</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>45450</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <v>45451</v>
+      </c>
+      <c r="G161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" t="s">
+        <v>328</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>45452</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>329</v>
+      </c>
+      <c r="C163" t="s">
+        <v>330</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>45453</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" t="s">
+        <v>332</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>45454</v>
+      </c>
+      <c r="G164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>333</v>
+      </c>
+      <c r="C165" t="s">
+        <v>334</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>45455</v>
+      </c>
+      <c r="G165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>335</v>
+      </c>
+      <c r="C166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" s="1">
+        <v>45456</v>
+      </c>
+      <c r="G166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>337</v>
+      </c>
+      <c r="C167" t="s">
+        <v>338</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" s="1">
+        <v>45457</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" t="s">
+        <v>340</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1">
+        <v>45458</v>
+      </c>
+      <c r="G168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>341</v>
+      </c>
+      <c r="C169" t="s">
+        <v>342</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1">
+        <v>45459</v>
+      </c>
+      <c r="G169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>343</v>
+      </c>
+      <c r="C170" t="s">
+        <v>344</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1">
+        <v>45460</v>
+      </c>
+      <c r="G170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>345</v>
+      </c>
+      <c r="C171" t="s">
+        <v>346</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" s="1">
+        <v>45461</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" t="s">
+        <v>348</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>45462</v>
+      </c>
+      <c r="G172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>349</v>
+      </c>
+      <c r="C173" t="s">
+        <v>350</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" s="1">
+        <v>45463</v>
+      </c>
+      <c r="G173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>351</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174" s="1">
+        <v>45464</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" t="s">
+        <v>354</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1">
+        <v>45465</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" t="s">
+        <v>356</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1">
+        <v>45466</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" t="s">
+        <v>358</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1">
+        <v>45467</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>359</v>
+      </c>
+      <c r="C178" t="s">
+        <v>360</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178" s="1">
+        <v>45468</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" t="s">
+        <v>362</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" s="1">
+        <v>45469</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>363</v>
+      </c>
+      <c r="C180" t="s">
+        <v>364</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" s="1">
+        <v>45470</v>
+      </c>
+      <c r="G180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>365</v>
+      </c>
+      <c r="C181" t="s">
+        <v>366</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" s="1">
+        <v>45471</v>
+      </c>
+      <c r="G181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>367</v>
+      </c>
+      <c r="C182" t="s">
+        <v>368</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" s="1">
+        <v>45472</v>
+      </c>
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" t="s">
+        <v>370</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1">
+        <v>45473</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" t="s">
+        <v>372</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184" s="1">
+        <v>45474</v>
+      </c>
+      <c r="G184">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" t="s">
+        <v>374</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" s="1">
+        <v>45475</v>
+      </c>
+      <c r="G185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>375</v>
+      </c>
+      <c r="C186" t="s">
+        <v>376</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" s="1">
+        <v>45476</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>377</v>
+      </c>
+      <c r="C187" t="s">
+        <v>378</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" s="1">
+        <v>45477</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s">
+        <v>380</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>45478</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s">
+        <v>382</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" s="1">
+        <v>45479</v>
+      </c>
+      <c r="G189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>383</v>
+      </c>
+      <c r="C190" t="s">
+        <v>384</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" s="1">
+        <v>45480</v>
+      </c>
+      <c r="G190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>385</v>
+      </c>
+      <c r="C191" t="s">
+        <v>386</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" s="1">
+        <v>45481</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>387</v>
+      </c>
+      <c r="C192" t="s">
+        <v>388</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" s="1">
+        <v>45482</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>389</v>
+      </c>
+      <c r="C193" t="s">
+        <v>390</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" s="1">
+        <v>45483</v>
+      </c>
+      <c r="G193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" t="s">
+        <v>392</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" s="1">
+        <v>45484</v>
+      </c>
+      <c r="G194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" t="s">
+        <v>394</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" s="1">
+        <v>45485</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>395</v>
+      </c>
+      <c r="C196" t="s">
+        <v>396</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" s="1">
+        <v>45486</v>
+      </c>
+      <c r="G196">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>397</v>
+      </c>
+      <c r="C197" t="s">
+        <v>398</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" s="1">
+        <v>45487</v>
+      </c>
+      <c r="G197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>399</v>
+      </c>
+      <c r="C198" t="s">
+        <v>400</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" s="1">
+        <v>45488</v>
+      </c>
+      <c r="G198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>401</v>
+      </c>
+      <c r="C199" t="s">
+        <v>402</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>45489</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>403</v>
+      </c>
+      <c r="C200" t="s">
+        <v>404</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" s="1">
+        <v>45490</v>
+      </c>
+      <c r="G200">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>405</v>
+      </c>
+      <c r="C201" t="s">
+        <v>406</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" s="1">
+        <v>45491</v>
+      </c>
+      <c r="G201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>407</v>
+      </c>
+      <c r="C202" t="s">
+        <v>408</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202" s="1">
+        <v>45492</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>409</v>
+      </c>
+      <c r="C203" t="s">
+        <v>410</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203" s="1">
+        <v>45493</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>45494</v>
+      </c>
+      <c r="G204">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" t="s">
+        <v>414</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205" s="1">
+        <v>45495</v>
+      </c>
+      <c r="G205">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" t="s">
+        <v>416</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" s="1">
+        <v>45496</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>417</v>
+      </c>
+      <c r="C207" t="s">
+        <v>418</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" s="1">
+        <v>45497</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>419</v>
+      </c>
+      <c r="C208" t="s">
+        <v>420</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" s="1">
+        <v>45498</v>
+      </c>
+      <c r="G208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" t="s">
+        <v>422</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" s="1">
+        <v>45499</v>
+      </c>
+      <c r="G209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>423</v>
+      </c>
+      <c r="C210" t="s">
+        <v>424</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" s="1">
+        <v>45500</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>425</v>
+      </c>
+      <c r="C211" t="s">
+        <v>426</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" s="1">
+        <v>45501</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" t="s">
+        <v>428</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <v>45502</v>
+      </c>
+      <c r="G212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>429</v>
+      </c>
+      <c r="C213" t="s">
+        <v>430</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" s="1">
+        <v>45503</v>
+      </c>
+      <c r="G213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>431</v>
+      </c>
+      <c r="C214" t="s">
+        <v>432</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" s="1">
+        <v>45504</v>
+      </c>
+      <c r="G214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>433</v>
+      </c>
+      <c r="C215" t="s">
+        <v>434</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" s="1">
+        <v>45505</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>435</v>
+      </c>
+      <c r="C216" t="s">
+        <v>436</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" s="1">
+        <v>45506</v>
+      </c>
+      <c r="G216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" t="s">
+        <v>438</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>45507</v>
+      </c>
+      <c r="G217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" t="s">
+        <v>440</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" s="1">
+        <v>45508</v>
+      </c>
+      <c r="G218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>441</v>
+      </c>
+      <c r="C219" t="s">
+        <v>442</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" s="1">
+        <v>45509</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>443</v>
+      </c>
+      <c r="C220" t="s">
+        <v>444</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>45510</v>
+      </c>
+      <c r="G220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" t="s">
+        <v>446</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221" s="1">
+        <v>45511</v>
+      </c>
+      <c r="G221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" t="s">
+        <v>448</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" s="1">
+        <v>45512</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>449</v>
+      </c>
+      <c r="C223" t="s">
+        <v>450</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223" s="1">
+        <v>45513</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>451</v>
+      </c>
+      <c r="C224" t="s">
+        <v>452</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224" s="1">
+        <v>45514</v>
+      </c>
+      <c r="G224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" t="s">
+        <v>454</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" s="1">
+        <v>45515</v>
+      </c>
+      <c r="G225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>455</v>
+      </c>
+      <c r="C226" t="s">
+        <v>456</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" s="1">
+        <v>45516</v>
+      </c>
+      <c r="G226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>457</v>
+      </c>
+      <c r="C227" t="s">
+        <v>458</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" s="1">
+        <v>45517</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>459</v>
+      </c>
+      <c r="C228" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>461</v>
+      </c>
+      <c r="C229" t="s">
+        <v>462</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" s="1">
+        <v>45519</v>
+      </c>
+      <c r="G229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>463</v>
+      </c>
+      <c r="C230" t="s">
+        <v>464</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230" s="1">
+        <v>45520</v>
+      </c>
+      <c r="G230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>465</v>
+      </c>
+      <c r="C231" t="s">
+        <v>466</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" s="1">
+        <v>45521</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232" t="s">
+        <v>468</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" s="1">
+        <v>45522</v>
+      </c>
+      <c r="G232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>469</v>
+      </c>
+      <c r="C233" t="s">
+        <v>470</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" s="1">
+        <v>45523</v>
+      </c>
+      <c r="G233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>471</v>
+      </c>
+      <c r="C234" t="s">
+        <v>472</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" s="1">
+        <v>45524</v>
+      </c>
+      <c r="G234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" t="s">
+        <v>474</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" s="1">
+        <v>45525</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>475</v>
+      </c>
+      <c r="C236" t="s">
+        <v>476</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>45526</v>
+      </c>
+      <c r="G236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" t="s">
+        <v>478</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" s="1">
+        <v>45527</v>
+      </c>
+      <c r="G237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>479</v>
+      </c>
+      <c r="C238" t="s">
+        <v>480</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" s="1">
+        <v>45528</v>
+      </c>
+      <c r="G238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>481</v>
+      </c>
+      <c r="C239" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" s="1">
+        <v>45529</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>483</v>
+      </c>
+      <c r="C240" t="s">
+        <v>484</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" s="1">
+        <v>45530</v>
+      </c>
+      <c r="G240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>485</v>
+      </c>
+      <c r="C241" t="s">
+        <v>486</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" s="1">
+        <v>45531</v>
+      </c>
+      <c r="G241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>487</v>
+      </c>
+      <c r="C242" t="s">
+        <v>488</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" s="1">
+        <v>45532</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>489</v>
+      </c>
+      <c r="C243" t="s">
+        <v>490</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" s="1">
+        <v>45533</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>491</v>
+      </c>
+      <c r="C244" t="s">
+        <v>492</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" s="1">
+        <v>45534</v>
+      </c>
+      <c r="G244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>493</v>
+      </c>
+      <c r="C245" t="s">
+        <v>494</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" s="1">
+        <v>45535</v>
+      </c>
+      <c r="G245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>495</v>
+      </c>
+      <c r="C246" t="s">
+        <v>496</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" s="1">
+        <v>45536</v>
+      </c>
+      <c r="G246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>497</v>
+      </c>
+      <c r="C247" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" s="1">
+        <v>45537</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>499</v>
+      </c>
+      <c r="C248" t="s">
+        <v>500</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" s="1">
+        <v>45538</v>
+      </c>
+      <c r="G248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" t="s">
+        <v>502</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" s="1">
+        <v>45539</v>
+      </c>
+      <c r="G249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>503</v>
+      </c>
+      <c r="C250" t="s">
+        <v>504</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250" s="1">
+        <v>45540</v>
+      </c>
+      <c r="G250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>505</v>
+      </c>
+      <c r="C251" t="s">
+        <v>506</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" s="1">
+        <v>45541</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>507</v>
+      </c>
+      <c r="C252" t="s">
+        <v>508</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>45542</v>
+      </c>
+      <c r="G252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>509</v>
+      </c>
+      <c r="C253" t="s">
+        <v>510</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" s="1">
+        <v>45543</v>
+      </c>
+      <c r="G253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>511</v>
+      </c>
+      <c r="C254" t="s">
+        <v>512</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" s="1">
+        <v>45544</v>
+      </c>
+      <c r="G254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>513</v>
+      </c>
+      <c r="C255" t="s">
+        <v>514</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" s="1">
+        <v>45545</v>
+      </c>
+      <c r="G255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>515</v>
+      </c>
+      <c r="C256" t="s">
+        <v>516</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" s="1">
+        <v>45546</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>517</v>
+      </c>
+      <c r="C257" t="s">
+        <v>518</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" s="1">
+        <v>45547</v>
+      </c>
+      <c r="G257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" t="s">
+        <v>520</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" s="1">
+        <v>45548</v>
+      </c>
+      <c r="G258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>521</v>
+      </c>
+      <c r="C259" t="s">
+        <v>522</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" s="1">
+        <v>45549</v>
+      </c>
+      <c r="G259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>523</v>
+      </c>
+      <c r="C260" t="s">
+        <v>524</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" s="1">
+        <v>45550</v>
+      </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>525</v>
+      </c>
+      <c r="C261" t="s">
+        <v>526</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" s="1">
+        <v>45551</v>
+      </c>
+      <c r="G261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>527</v>
+      </c>
+      <c r="C262" t="s">
+        <v>528</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" s="1">
+        <v>45552</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>529</v>
+      </c>
+      <c r="C263" t="s">
+        <v>530</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" s="1">
+        <v>45553</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>531</v>
+      </c>
+      <c r="C264" t="s">
+        <v>532</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" s="1">
+        <v>45554</v>
+      </c>
+      <c r="G264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F271" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/커뮤니티 더미데이터.xlsx
+++ b/커뮤니티 더미데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F80F323-A790-4C55-AAE6-B4A78425FEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C05E63-A07A-49DC-922D-552AE28142F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="1950" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130:G264"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2065,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>42</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2502,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>48</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         <v>52</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>60</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>62</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>64</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>66</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>68</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>70</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>72</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2824,7 +2824,7 @@
         <v>74</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2847,7 +2847,7 @@
         <v>76</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>78</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2893,7 +2893,7 @@
         <v>80</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>82</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>84</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>86</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>88</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>90</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>92</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>94</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>96</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>98</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>100</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>102</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>104</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>106</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>108</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>110</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>112</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>114</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3307,7 +3307,7 @@
         <v>116</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>118</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>120</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>122</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>124</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>126</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>128</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>130</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3491,7 +3491,7 @@
         <v>132</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>134</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>136</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>138</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>140</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3606,7 +3606,7 @@
         <v>142</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>144</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>146</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>148</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>150</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>152</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>154</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3767,7 +3767,7 @@
         <v>156</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>158</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>160</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>162</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>164</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>166</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3905,7 +3905,7 @@
         <v>168</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3928,7 +3928,7 @@
         <v>170</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>172</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>174</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>176</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>178</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>180</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -4066,7 +4066,7 @@
         <v>182</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>184</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>186</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>188</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>190</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>192</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>194</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>196</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -4250,7 +4250,7 @@
         <v>198</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>200</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>202</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>204</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>206</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>208</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>210</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -4411,7 +4411,7 @@
         <v>212</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4434,7 +4434,7 @@
         <v>214</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4457,7 +4457,7 @@
         <v>216</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>218</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4503,7 +4503,7 @@
         <v>220</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4526,7 +4526,7 @@
         <v>222</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>224</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>226</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4595,7 +4595,7 @@
         <v>228</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>230</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>232</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4664,7 +4664,7 @@
         <v>234</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>236</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4710,7 +4710,7 @@
         <v>238</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>240</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>242</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>244</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>246</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4825,7 +4825,7 @@
         <v>248</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>250</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>252</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>254</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4917,7 +4917,7 @@
         <v>256</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4940,7 +4940,7 @@
         <v>258</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>260</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>262</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>264</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>266</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>268</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -5078,7 +5078,7 @@
         <v>270</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>272</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>274</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>276</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>278</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>280</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>282</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -5239,7 +5239,7 @@
         <v>284</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5262,7 +5262,7 @@
         <v>286</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>288</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>290</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5331,7 +5331,7 @@
         <v>292</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5354,7 +5354,7 @@
         <v>294</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>296</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>298</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>300</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5446,7 +5446,7 @@
         <v>302</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5469,7 +5469,7 @@
         <v>304</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5492,7 +5492,7 @@
         <v>306</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>308</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -5538,7 +5538,7 @@
         <v>310</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>312</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -5584,7 +5584,7 @@
         <v>314</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>316</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>318</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>320</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>322</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5699,7 +5699,7 @@
         <v>324</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>326</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>328</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>330</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>332</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5814,7 +5814,7 @@
         <v>334</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5837,7 +5837,7 @@
         <v>336</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>338</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5883,7 +5883,7 @@
         <v>340</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5906,7 +5906,7 @@
         <v>342</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>344</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5952,7 +5952,7 @@
         <v>346</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>348</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>350</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>352</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -6044,7 +6044,7 @@
         <v>354</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>356</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>358</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -6113,7 +6113,7 @@
         <v>360</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -6136,7 +6136,7 @@
         <v>362</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>364</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -6182,7 +6182,7 @@
         <v>366</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>368</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>370</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -6251,7 +6251,7 @@
         <v>372</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -6274,7 +6274,7 @@
         <v>374</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>376</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>378</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -6343,7 +6343,7 @@
         <v>380</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>382</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -6389,7 +6389,7 @@
         <v>384</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>386</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -6435,7 +6435,7 @@
         <v>388</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>390</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>392</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>394</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6527,7 +6527,7 @@
         <v>396</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -6550,7 +6550,7 @@
         <v>398</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>400</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>402</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>404</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -6642,7 +6642,7 @@
         <v>406</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -6665,7 +6665,7 @@
         <v>408</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -6688,7 +6688,7 @@
         <v>410</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>412</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>414</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>416</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>418</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>420</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -6826,7 +6826,7 @@
         <v>422</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6849,7 +6849,7 @@
         <v>424</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -6872,7 +6872,7 @@
         <v>426</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>428</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>430</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>432</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -6964,7 +6964,7 @@
         <v>434</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>436</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -7010,7 +7010,7 @@
         <v>438</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>440</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -7056,7 +7056,7 @@
         <v>442</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>444</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>446</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>448</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -7148,7 +7148,7 @@
         <v>450</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>452</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -7194,7 +7194,7 @@
         <v>454</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>456</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>458</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -7263,7 +7263,7 @@
         <v>460</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -7286,7 +7286,7 @@
         <v>462</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>464</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -7332,7 +7332,7 @@
         <v>466</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -7355,7 +7355,7 @@
         <v>468</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>470</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -7401,7 +7401,7 @@
         <v>472</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -7424,7 +7424,7 @@
         <v>474</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -7447,7 +7447,7 @@
         <v>476</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>478</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -7493,7 +7493,7 @@
         <v>480</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>482</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>484</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E240">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>486</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>488</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -7608,7 +7608,7 @@
         <v>490</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>492</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>494</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -7677,7 +7677,7 @@
         <v>496</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -7700,7 +7700,7 @@
         <v>498</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E247">
         <v>0</v>
@@ -7723,7 +7723,7 @@
         <v>500</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>502</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E249">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>504</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E250">
         <v>0</v>
@@ -7792,7 +7792,7 @@
         <v>506</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>508</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>510</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -7861,7 +7861,7 @@
         <v>512</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -7884,7 +7884,7 @@
         <v>514</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -7907,7 +7907,7 @@
         <v>516</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -7930,7 +7930,7 @@
         <v>518</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -7953,7 +7953,7 @@
         <v>520</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -7976,7 +7976,7 @@
         <v>522</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>524</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>526</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -8045,7 +8045,7 @@
         <v>528</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E262">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>530</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>532</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E264">
         <v>0</v>
